--- a/regionseng/8/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
+++ b/regionseng/8/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -88,15 +88,16 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">  2022 *</t>
+    <t xml:space="preserve">  2024 *</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0;\-#,##0.0;\-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -263,7 +264,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -271,8 +272,11 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -331,6 +335,12 @@
     <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -341,8 +351,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="5"/>
     <cellStyle name="Normal 2 2" xfId="3"/>
     <cellStyle name="Normal 3" xfId="4"/>
     <cellStyle name="Normal_Mosaxleoba na 1.1 raionebis mixedvit" xfId="1"/>
@@ -648,7 +659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:F1"/>
@@ -657,19 +668,21 @@
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="2" customWidth="1"/>
-    <col min="2" max="6" width="12.28515625" style="2" customWidth="1"/>
+    <col min="2" max="4" width="12.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="22.9" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="3"/>
@@ -734,7 +747,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16" ht="13.15" customHeight="1">
+    <row r="5" spans="1:16">
       <c r="A5" s="7">
         <v>2009</v>
       </c>
@@ -759,7 +772,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:16" ht="13.15" customHeight="1">
+    <row r="6" spans="1:16">
       <c r="A6" s="7">
         <v>2010</v>
       </c>
@@ -784,7 +797,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:16" ht="13.15" customHeight="1">
+    <row r="7" spans="1:16">
       <c r="A7" s="7">
         <v>2011</v>
       </c>
@@ -809,7 +822,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:16" ht="13.15" customHeight="1">
+    <row r="8" spans="1:16">
       <c r="A8" s="7">
         <v>2012</v>
       </c>
@@ -834,7 +847,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:16" ht="13.15" customHeight="1">
+    <row r="9" spans="1:16">
       <c r="A9" s="7">
         <v>2013</v>
       </c>
@@ -859,7 +872,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:16" ht="13.15" customHeight="1">
+    <row r="10" spans="1:16">
       <c r="A10" s="7">
         <v>2014</v>
       </c>
@@ -884,7 +897,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:16" ht="13.15" customHeight="1">
+    <row r="11" spans="1:16">
       <c r="A11" s="7">
         <v>2015</v>
       </c>
@@ -909,24 +922,24 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:16" ht="13.15" customHeight="1">
+    <row r="12" spans="1:16">
       <c r="A12" s="7">
         <v>2016</v>
       </c>
       <c r="B12" s="24">
-        <v>-7710.1691999999948</v>
+        <v>-7710.1694000000016</v>
       </c>
       <c r="C12" s="24">
-        <v>20623.319599999999</v>
+        <v>20623.319399999986</v>
       </c>
       <c r="D12" s="24">
-        <v>42438.14880000001</v>
+        <v>42438.148399999984</v>
       </c>
       <c r="E12" s="24">
-        <v>-26221.352000000017</v>
+        <v>-26221.351999999999</v>
       </c>
       <c r="F12" s="25">
-        <v>29129.947199999999</v>
+        <v>29129.946399999972</v>
       </c>
       <c r="G12" s="4"/>
       <c r="M12" s="4"/>
@@ -934,24 +947,24 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" spans="1:16" ht="13.15" customHeight="1">
+    <row r="13" spans="1:16">
       <c r="A13" s="7">
         <v>2017</v>
       </c>
       <c r="B13" s="17">
-        <v>18639.671500000004</v>
+        <v>18639.671800000015</v>
       </c>
       <c r="C13" s="17">
-        <v>22099.771400000001</v>
+        <v>22099.771700000001</v>
       </c>
       <c r="D13" s="17">
-        <v>20394.692599999998</v>
+        <v>20394.692599999988</v>
       </c>
       <c r="E13" s="17">
-        <v>3509.9126999999962</v>
+        <v>3509.9124999999913</v>
       </c>
       <c r="F13" s="18">
-        <v>64644.048199999997</v>
+        <v>64644.048599999995</v>
       </c>
       <c r="G13" s="4"/>
       <c r="M13" s="4"/>
@@ -959,24 +972,24 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
     </row>
-    <row r="14" spans="1:16" ht="13.15" customHeight="1">
+    <row r="14" spans="1:16">
       <c r="A14" s="7">
         <v>2018</v>
       </c>
       <c r="B14" s="17">
-        <v>29581.328000000009</v>
+        <v>29582.929299999993</v>
       </c>
       <c r="C14" s="17">
-        <v>27400.768599999989</v>
+        <v>27400.768400000004</v>
       </c>
       <c r="D14" s="17">
-        <v>12889.674100000011</v>
+        <v>12889.673100000005</v>
       </c>
       <c r="E14" s="17">
-        <v>16408.059600000001</v>
+        <v>16406.571800000005</v>
       </c>
       <c r="F14" s="18">
-        <v>86279.830300000001</v>
+        <v>86279.942600000009</v>
       </c>
       <c r="G14" s="4"/>
       <c r="M14" s="4"/>
@@ -984,24 +997,24 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
     </row>
-    <row r="15" spans="1:16" ht="13.15" customHeight="1">
+    <row r="15" spans="1:16">
       <c r="A15" s="7">
         <v>2019</v>
       </c>
       <c r="B15" s="17">
-        <v>4786.9336000000021</v>
+        <v>4786.8999999999996</v>
       </c>
       <c r="C15" s="17">
-        <v>20743.23420000001</v>
+        <v>20743.2</v>
       </c>
       <c r="D15" s="17">
-        <v>23261.557300000004</v>
+        <v>23261.599999999999</v>
       </c>
       <c r="E15" s="17">
-        <v>-99.189300000003058</v>
+        <v>-99.2</v>
       </c>
       <c r="F15" s="18">
-        <v>48692.535800000005</v>
+        <v>48692.5</v>
       </c>
       <c r="G15" s="4"/>
       <c r="M15" s="4"/>
@@ -1009,24 +1022,24 @@
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
     </row>
-    <row r="16" spans="1:16" ht="13.15" customHeight="1">
+    <row r="16" spans="1:16">
       <c r="A16" s="7">
         <v>2020</v>
       </c>
       <c r="B16" s="17">
-        <v>8155.0880999999972</v>
+        <v>8155.1</v>
       </c>
       <c r="C16" s="17">
-        <v>28504.292600000004</v>
+        <v>28504.3</v>
       </c>
       <c r="D16" s="17">
-        <v>37353.7454</v>
+        <v>37353.699999999997</v>
       </c>
       <c r="E16" s="17">
-        <v>4696.0728000000036</v>
+        <v>4696.1000000000004</v>
       </c>
       <c r="F16" s="18">
-        <v>78709.198900000003</v>
+        <v>78709.2</v>
       </c>
       <c r="G16" s="4"/>
       <c r="M16" s="4"/>
@@ -1039,19 +1052,19 @@
         <v>2021</v>
       </c>
       <c r="B17" s="17">
-        <v>-8740.4194999999945</v>
+        <v>-8271.6</v>
       </c>
       <c r="C17" s="17">
-        <v>13750.938699999999</v>
+        <v>14901.1</v>
       </c>
       <c r="D17" s="17">
-        <v>20486.265099999997</v>
+        <v>21701.200000000001</v>
       </c>
       <c r="E17" s="17">
-        <v>-4153.6115999999993</v>
+        <v>-2941.7</v>
       </c>
       <c r="F17" s="18">
-        <v>21343.172699999999</v>
+        <v>25389.1</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1065,19 +1078,23 @@
       <c r="P17" s="4"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="7" t="s">
-        <v>14</v>
+      <c r="A18" s="7">
+        <v>2022</v>
       </c>
       <c r="B18" s="17">
-        <v>10083.477800000008</v>
+        <v>12218.9</v>
       </c>
       <c r="C18" s="17">
-        <v>8604.8982000000015</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
+        <v>12569.9</v>
+      </c>
+      <c r="D18" s="17">
+        <v>26463.1</v>
+      </c>
+      <c r="E18" s="17">
+        <v>-16118.2</v>
+      </c>
       <c r="F18" s="18">
-        <v>18688.376000000011</v>
+        <v>35133.699999999997</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -1091,86 +1108,100 @@
       <c r="P18" s="4"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="7">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="24">
+        <v>13595.2</v>
+      </c>
+      <c r="C19" s="24">
+        <v>-2580.6</v>
+      </c>
+      <c r="D19" s="26">
+        <v>3432.6</v>
+      </c>
+      <c r="E19" s="27">
+        <v>-18244.3</v>
+      </c>
+      <c r="F19" s="25">
+        <v>-3797.1</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="24">
+        <v>-4362.6000000000004</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="18">
+        <v>-4362.6000000000004</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="14" t="s">
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="14" t="s">
         <v>11</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="16" t="s">
-        <v>8</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -1190,7 +1221,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -1210,7 +1241,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -1229,7 +1260,9 @@
       <c r="P25" s="10"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="10"/>
+      <c r="A26" s="16" t="s">
+        <v>9</v>
+      </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -1246,67 +1279,105 @@
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
     </row>
-    <row r="27" spans="1:16" ht="42" customHeight="1">
-      <c r="A27" s="28" t="s">
+    <row r="27" spans="1:16">
+      <c r="A27" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+    </row>
+    <row r="29" spans="1:16" ht="48" customHeight="1">
+      <c r="A29" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A29:F29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/regionseng/8/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
+++ b/regionseng/8/ext.trade and foreign direct invset/ext.trade and foreign direct invset.xlsx
@@ -662,7 +662,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -670,7 +670,7 @@
     <col min="1" max="1" width="10.42578125" style="2" customWidth="1"/>
     <col min="2" max="4" width="12.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -1111,20 +1111,20 @@
       <c r="A19" s="7">
         <v>2023</v>
       </c>
-      <c r="B19" s="24">
-        <v>13595.2</v>
-      </c>
-      <c r="C19" s="24">
+      <c r="B19" s="17">
+        <v>216786.12299999993</v>
+      </c>
+      <c r="C19" s="17">
         <v>-2580.6</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="17">
         <v>3432.6</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="17">
         <v>-18244.3</v>
       </c>
-      <c r="F19" s="25">
-        <v>-3797.1</v>
+      <c r="F19" s="18">
+        <v>199393.82299999995</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1137,18 +1137,20 @@
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" ht="14.25" customHeight="1">
       <c r="A20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="24">
         <v>-4362.6000000000004</v>
       </c>
-      <c r="C20" s="24"/>
+      <c r="C20" s="24">
+        <v>9848.3499999999913</v>
+      </c>
       <c r="D20" s="26"/>
       <c r="E20" s="27"/>
-      <c r="F20" s="18">
-        <v>-4362.6000000000004</v>
+      <c r="F20" s="25">
+        <v>5485.7499999999909</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
